--- a/schema/Copaf/issues_metadados_copaf.xlsx
+++ b/schema/Copaf/issues_metadados_copaf.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>COD_CAE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>CNAE associado ao Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_CNAE_DECRETO (FOREIGN KEY: ENABLED)- SYS_C00119077 (C: ENABLED)</t>
+          <t>FK_CAE_R_CNAE_DECRETO (FOREIGN KEY: ENABLED)- PK_CNAE_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525954 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>22</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COD_CAE</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FK_CAE_R_CNAE_DECRETO (FOREIGN KEY: ENABLED)- SYS_C00119079 (C: ENABLED)</t>
+          <t>FK_DECRETO_R_CNAE_DECRETO (FOREIGN KEY: ENABLED)- PK_CNAE_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525953 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>22</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
@@ -703,12 +703,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO_DECRETO</t>
+          <t>DAT_FIM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SYS_C002015394 (C: ENABLED)- SYS_C002015396 (PRIMARY KEY: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -727,37 +727,37 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DAT_FIM</t>
+          <t>DAT_INICIO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -855,12 +855,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DAT_INICIO</t>
+          <t>SEQ_DEBITO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>FK_DEBITO_R_DEBITO_DEC (FOREIGN KEY: ENABLED)- SYS_C001563775 (C: ENABLED)- SYS_C001563776 (PRIMARY KEY: ENABLED)- UK_DEBITO_DECRETO_1 (UNIQUE: ENABLED)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="S6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
+      <c r="T6" t="b">
         <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +931,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO</t>
+          <t>SEQ_DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK_DEBITO_DECRETO_1 (UNIQUE: ENABLED)</t>
+          <t>SYS_C001563875 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>22</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_DECRETO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_DEBITO_DEC (FOREIGN KEY: ENABLED)- SYS_C002015395 (C: ENABLED)- UK_DEBITO_DECRETO_1 (UNIQUE: ENABLED)</t>
+          <t>FK_DECRETO_R_DEBITO_DEC (FOREIGN KEY: ENABLED)- SYS_C001563774 (C: ENABLED)- SYS_C001563776 (PRIMARY KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>22</v>
@@ -1040,34 +1040,34 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
         <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
       </c>
       <c r="T8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEQ_USUARIO</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FK_USUARIO_R_DEBITO_DEC (FOREIGN KEY: ENABLED)</t>
+          <t>SYS_C001563876 (C: ENABLED)- UK_DEBITO_DECRETO_1 (UNIQUE: ENABLED)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>22</v>
@@ -1116,34 +1116,34 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
         <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_USUARIO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SYS_C002022587 (C: ENABLED)- SYS_C002022590 (PRIMARY KEY: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
       <c r="I13" t="n">
         <v>22</v>
@@ -1423,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>525</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEQ_USUARIO</t>
+          <t>SEQ_DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SYS_C002022588 (C: ENABLED)</t>
+          <t>SYS_C001563957 (C: ENABLED)- SYS_C001563959 (PRIMARY KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
       <c r="I14" t="n">
         <v>22</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>788</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_DEBITO_DECRETO_PARC (FOREIGN KEY: ENABLED)- SYS_C002022589 (C: ENABLED)</t>
+          <t>FK_DECRETO_R_DEBITO_DECRETO_PARC (FOREIGN KEY: ENABLED)- SYS_C001563958 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
       <c r="I15" t="n">
         <v>22</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEBITO_PARCELAMENTO</t>
+          <t>DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEQ_PARCELAMENTO</t>
+          <t>SEQ_USUARIO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FK_PARCELAMENTO_R_DEBITO_PAR (FOREIGN KEY: ENABLED)- SYS_C00106331 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>207</v>
+        <v>788</v>
       </c>
       <c r="I16" t="n">
         <v>22</v>
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do D�bito baixado atrav�s do Parcelamento</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FK_DEBITO_R_DEBITO_PAR (FOREIGN KEY: ENABLED)- SYS_C00106332 (C: ENABLED)</t>
+          <t>FK_DEBITO_R_DEBITO_PAR (FOREIGN KEY: ENABLED)- PK_DEBITO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525957 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>207</v>
+        <v>242762</v>
       </c>
       <c r="I17" t="n">
         <v>22</v>
@@ -1727,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>207</v>
+        <v>242304</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>1</v>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>DEBITO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1777,12 +1777,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Parcelamento</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PK_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C00111404 (C: ENABLED)</t>
+          <t>FK_PARCELAMENTO_R_DEBITO_PAR (FOREIGN KEY: ENABLED)- PK_DEBITO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525956 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>242762</v>
       </c>
       <c r="I18" t="n">
         <v>22</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>15</v>
+        <v>21310</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
@@ -1843,17 +1843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DAT_FIM</t>
+          <t>COD_INDICADOR_MINIMO_PARCELA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>C�digo do indicar financeiro para o campo VLR_MINIMO_PARCELA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1867,22 +1867,22 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1919,22 +1919,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DAT_INICIO</t>
+          <t>COD_ORIGEM_DECRETO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sistema de origem do D�bito. Mesma codifica��o do campo CONTA_CORRENTE.DEBITO.TIP_ORIGEM_SISTEMA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SYS_C00111405 (C: ENABLED)</t>
+          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C001525962 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1943,19 +1943,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NUM_DECRETO</t>
+          <t>COD_TIPO_ATUALIZACAO_PARCELA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tipo de atualiza��o da parcela</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C00111406 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2019,19 +2019,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I21" t="n">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COD_ORIGEM_DECRETO</t>
+          <t>COD_TIPO_DECRETO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tipo do Decreto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C00111407 (C: ENABLED)</t>
+          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C001525964 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I22" t="n">
         <v>22</v>
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2147,17 +2147,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DSC_ANO_MES_PRIM_PARCELA</t>
+          <t>COD_TIPO_VENCIMENTO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Codigo do tipo vencimento
+1- Ultimo dia util
+2- Data da abertura</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2171,22 +2173,22 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2223,17 +2225,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DSC_PERIODO_REFERENCIA_FIM</t>
+          <t>DAT_FIM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data final da vig�ncia do decreto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2247,7 +2249,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I24" t="n">
         <v>7</v>
@@ -2256,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2299,22 +2301,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DSC_PERIODO_REFERENCIA_INICIO</t>
+          <t>DAT_INICIO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data de in�cio da vig�ncia do decreto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001525960 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2323,7 +2325,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
@@ -2332,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2347,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
@@ -2375,22 +2377,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QTD_PARCELAS</t>
+          <t>DSC_ANO_MES_PRIM_PARCELA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>M�s e Ano (MM/AAAA) de vencimento definido para a primeira parcela dos parcelamentos</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SYS_C00111408 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2399,22 +2401,22 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2423,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="b">
         <v>0</v>
@@ -2451,22 +2453,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COD_TIPO_DECRETO</t>
+          <t>DSC_PERIODO_REFERENCIA_FIM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>M�s e Ano (MM/AAAA) final a que se referem os d�bitos pass�veis de serem parcelados</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C00111409 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2475,22 +2477,22 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2499,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="b">
         <v>0</v>
@@ -2511,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2527,22 +2529,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NUM_MAXIMO_DIAS_ATRASO</t>
+          <t>DSC_PERIODO_REFERENCIA_INICIO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>M�s e Ano (MM/AAAA) inicial a que se referem os d�bitos pass�veis de serem parcelados</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SYS_C00111410 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2551,22 +2553,22 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I28" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2575,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="b">
         <v>0</v>
@@ -2603,22 +2605,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_JUROS</t>
+          <t>DSC_PER_REF_INICIO_MESES_CONSE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Per�odo de refer�ncia inicial. Ano e M�s</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SYS_C00133222 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2627,10 +2629,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I29" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2642,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_MULTA</t>
+          <t>NUM_DECRETO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N�mero do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SYS_C00133223 (C: ENABLED)</t>
+          <t>DECRETO_PARCELAMENTO_UK1 (UNIQUE: ENABLED)- SYS_C001525961 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2703,22 +2705,22 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I30" t="n">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2727,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
         <v>1</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2755,7 +2757,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VLR_MINIMO_PARCELA</t>
+          <t>NUM_MAXIMO_DIAS_ATRASO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2765,12 +2767,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Valor m�nimo de cada parcela</t>
+          <t>N�mero m�ximo de dias de atraso permitido no pagamento das parcelas deste novo parcelamento</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SYS_C00111411 (C: ENABLED)</t>
+          <t>SYS_C001525965 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2779,19 +2781,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I31" t="n">
         <v>22</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2831,7 +2833,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COD_INDICADOR_MINIMO_PARCELA</t>
+          <t>NUM_PERCENTUAL_1A_PARCELA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2841,7 +2843,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C�digo do indicador financeiro utilizado para o campo VLR_MINIMO_PARCELA</t>
+          <t>Percentual utilizado para 1a parcela</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2855,22 +2857,22 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I32" t="n">
         <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2907,7 +2909,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NUM_PERCENTUAL_1A_PARCELA</t>
+          <t>NUM_PERIODOS_CONSEC_ATRASO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2917,12 +2919,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Percentual utilizado para a primeira parcela do parcelamento</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SYS_C00133226 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2931,22 +2933,22 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I33" t="n">
         <v>22</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2983,7 +2985,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COD_TIPO_VENCIMENTO</t>
+          <t>QTD_PARCELAS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2993,12 +2995,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Quantidade de parcelas a serem aplicadas, como definidas no decreto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001525963 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3007,7 +3009,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I34" t="n">
         <v>22</v>
@@ -3016,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3031,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="b">
         <v>0</v>
@@ -3059,22 +3061,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TIP_CRITICA_CNAE</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>PK_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525959 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3083,37 +3085,37 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>43</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
         <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -3135,12 +3137,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TIP_CRITICA_RECEITA</t>
+          <t>STA_VERIFICA_3_MESES_CONSEC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3159,22 +3161,22 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
         <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3211,7 +3213,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DSC_PER_REF_INICIO_MESES_CONSE</t>
+          <t>TIP_CRITICA_CNAE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3221,7 +3223,9 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tipo de cr�tica para CNAE:
+'I' - Inclus�o
+'E' - Exclus�o</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3235,22 +3239,22 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3287,17 +3291,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COD_TIPO_ATUALIZACAO_PARCELA</t>
+          <t>TIP_CRITICA_RECEITA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tipo de cr�tica para C�digo de Receita:
+'I' - Inclus�o
+'E' - Exclus�o</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3311,22 +3317,22 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I38" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
         <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3387,7 +3393,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I39" t="n">
         <v>255</v>
@@ -3396,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3439,7 +3445,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STA_VERIFICA_3_MESES_CONSEC</t>
+          <t>VLR_MINIMO_PARCELA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3449,12 +3455,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Valor m�nimo de cada parcela</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001527004 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3463,22 +3469,22 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I40" t="n">
         <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="b">
         <v>0</v>
@@ -3510,12 +3516,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NUM_PERIODOS_CONSEC_ATRASO</t>
+          <t>SEQ_DESCONTO_REFIS_DAE_MIGRADO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3525,12 +3531,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do registro de Desconto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>PK_DESCONTO_REFIS_DAE_MIGRADO (PRIMARY KEY: ENABLED)- SYS_C001526193 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3539,7 +3545,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>35324</v>
       </c>
       <c r="I41" t="n">
         <v>22</v>
@@ -3548,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>35324</v>
       </c>
       <c r="M41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3563,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
         <v>1</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>0</v>
-      </c>
-      <c r="R41" t="b">
-        <v>0</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3591,7 +3597,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SEQ_DESCONTO_REFIS_DAE_MIGRADO</t>
+          <t>SEQ_DOCUMENTO_CREDITO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3601,12 +3607,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Campo chave primaria da tabela que ir� utilizar a sequence SEQ_DOCUMENTO_CREDITO.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SYS_C00133909 (PRIMARY KEY: ENABLED)- SYS_C0082679 (C: ENABLED)</t>
+          <t>FK_DOC_CRED_R_DESC_DAE_REF_LEG (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3615,7 +3621,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>35324</v>
       </c>
       <c r="I42" t="n">
         <v>22</v>
@@ -3624,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>10</v>
+        <v>35272</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3639,16 +3645,16 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
       </c>
       <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
         <v>1</v>
-      </c>
-      <c r="S42" t="b">
-        <v>0</v>
       </c>
       <c r="T42" t="b">
         <v>0</v>
@@ -3677,12 +3683,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Valor de desconto sobre juros</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SYS_C00133906 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3691,7 +3697,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>35324</v>
       </c>
       <c r="I43" t="n">
         <v>22</v>
@@ -3703,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>10</v>
+        <v>19988</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3753,12 +3759,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Valor de desconto sobre multa</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SYS_C00133907 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3767,7 +3773,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>35324</v>
       </c>
       <c r="I44" t="n">
         <v>22</v>
@@ -3779,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>9</v>
+        <v>6106</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3829,12 +3835,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Valor de desconto sobre valor principal</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SYS_C00133908 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3843,7 +3849,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>35324</v>
       </c>
       <c r="I45" t="n">
         <v>22</v>
@@ -3855,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3890,17 +3896,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
+          <t>FAIXA_DESCONTO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEQ_DOCUMENTO_CREDITO</t>
+          <t>DAT_FIM_ADESAO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3910,7 +3916,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FK_DOC_CRED_R_DESC_DAE_REF_LEG (FOREIGN KEY: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3919,19 +3925,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3952,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="b">
         <v>0</v>
@@ -3971,12 +3977,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEQ_FAIXA_DESCONTO</t>
+          <t>DAT_INICIO_ADESAO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3986,7 +3992,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SYS_C00138516 (PRIMARY KEY: ENABLED)- SYS_C0084284 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3995,19 +4001,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I47" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4019,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="b">
         <v>0</v>
       </c>
       <c r="R47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -4057,12 +4063,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Quantidade m�xima de parcelas para entrar nesta faixa de desconto</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SYS_C0084285 (C: ENABLED)</t>
+          <t>SYS_C001525969 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4071,7 +4077,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I48" t="n">
         <v>22</v>
@@ -4080,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4133,12 +4139,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Quantidade m�nima de parcelas para entrar nesta faixa de desconto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SYS_C0084286 (C: ENABLED)</t>
+          <t>SYS_C001525970 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4147,7 +4153,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I49" t="n">
         <v>22</v>
@@ -4159,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4209,12 +4215,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_FAIXA (FOREIGN KEY: ENABLED)- SYS_C0084287 (C: ENABLED)</t>
+          <t>FK_DECRETO_R_FAIXA (FOREIGN KEY: ENABLED)- SYS_C001525971 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4223,7 +4229,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I50" t="n">
         <v>22</v>
@@ -4232,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4275,7 +4281,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_JUROS</t>
+          <t>SEQ_FAIXA_DESCONTO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4285,12 +4291,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador da faixa de desconto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SYS_C00138455 (C: ENABLED)</t>
+          <t>PK_FAIXA_DESCONTO (PRIMARY KEY: ENABLED)- SYS_C001525968 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4299,19 +4305,19 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I51" t="n">
         <v>22</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4323,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
         <v>1</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-      <c r="R51" t="b">
-        <v>0</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -4351,7 +4357,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_MULTA</t>
+          <t>VLR_DESCONTO_JUROS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4361,12 +4367,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Percentual de desconto de juros para esta faixa de descontos</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SYS_C00138517 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4375,7 +4381,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I52" t="n">
         <v>22</v>
@@ -4387,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4427,17 +4433,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DAT_FIM_ADESAO</t>
+          <t>VLR_DESCONTO_MULTA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Percentual de desconto de multas para esta faixa de descontos</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4451,19 +4457,19 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4498,27 +4504,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FAIXA_DESCONTO</t>
+          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DAT_INICIO_ADESAO</t>
+          <t>NUM_QUANTIDADE_MAX_PARCELAS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N�mero m�ximo de quantidade de parcelas</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001528114 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4527,19 +4533,19 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -4579,7 +4585,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SEQ_FAIXA_PERC_1A_PARCELA</t>
+          <t>NUM_QUANTIDADE_MIN_PARCELAS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4589,12 +4595,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N�mero M�nimo de Quantidade de Parcelas</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SYS_C00118060 (C: ENABLED)- SYS_C00136406 (PRIMARY KEY: ENABLED)</t>
+          <t>SYS_C001528115 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4603,7 +4609,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I55" t="n">
         <v>22</v>
@@ -4612,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4633,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -4655,7 +4661,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>VLR_PERCENTUAL_1A_PARCELA</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4665,12 +4671,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SYS_C00136405 (C: ENABLED)</t>
+          <t>FK_FAIXA_PE_FK_DECRET_DECRETO_ (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4679,19 +4685,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I56" t="n">
         <v>22</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4712,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="b">
         <v>0</v>
@@ -4731,7 +4737,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NUM_QUANTIDADE_MAX_PARCELAS</t>
+          <t>SEQ_FAIXA_PERC_1A_PARCELA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4741,12 +4747,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador da faixa de desconto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SYS_C00118063 (C: ENABLED)</t>
+          <t>PK_FAIXA_PERCENTUAL_1A_PARCELA (PRIMARY KEY: ENABLED)- SYS_C001528112 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4755,7 +4761,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I57" t="n">
         <v>22</v>
@@ -4767,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4785,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -4807,7 +4813,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NUM_QUANTIDADE_MIN_PARCELAS</t>
+          <t>VLR_PERCENTUAL_1A_PARCELA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4817,12 +4823,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Valor do percentual da 1a parcela</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SYS_C00118066 (C: ENABLED)</t>
+          <t>SYS_C001528113 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4831,19 +4837,19 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I58" t="n">
         <v>22</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4878,27 +4884,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
+          <t>LOG_EVENTO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>DAT_LOG_EVENTO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>TIMESTAMP(6)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data/hora de ocorr�ncia do evento</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FK_FAIXA_PERCENTUAL_1A_PARCELA_R_DECRETO_PARCELAMENTO (FOREIGN KEY: ENABLED)- SYS_C00118069 (C: ENABLED)</t>
+          <t>SYS_C001525974 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4907,19 +4913,19 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>31998</v>
       </c>
       <c r="I59" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>24186</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4940,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="b">
         <v>0</v>
@@ -4959,12 +4965,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SEQ_LOG_EVENTO</t>
+          <t>DSC_MENSAGEM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>CLOB</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4974,7 +4980,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SYS_C00142280 (PRIMARY KEY: ENABLED)- SYS_C0072659 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4983,22 +4989,22 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I60" t="n">
-        <v>22</v>
+        <v>4000</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="L60" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>22726</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5007,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="b">
         <v>0</v>
       </c>
       <c r="R60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -5035,12 +5041,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DAT_LOG_EVENTO</t>
+          <t>DSC_VALOR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>CLOB</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5050,7 +5056,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SYS_C0072660 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5059,19 +5065,19 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>4000</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>11</v>
+        <v>1334</v>
       </c>
       <c r="L61" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -5083,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="b">
         <v>0</v>
@@ -5111,22 +5117,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TIP_EVENTO</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SYS_C0072661 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5135,22 +5141,22 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I62" t="n">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>31953</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -5159,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="b">
         <v>0</v>
@@ -5187,7 +5193,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_LOG_EVENTO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5197,12 +5203,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do registro de log</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>PK_LOG_EVENTO (PRIMARY KEY: ENABLED)- SYS_C001525973 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5211,7 +5217,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I63" t="n">
         <v>22</v>
@@ -5220,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>18</v>
+        <v>31998</v>
       </c>
       <c r="M63" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -5235,13 +5241,13 @@
         <v>0</v>
       </c>
       <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
         <v>1</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>0</v>
-      </c>
-      <c r="R63" t="b">
-        <v>0</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -5273,7 +5279,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Parcelamento</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5287,7 +5293,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I64" t="n">
         <v>22</v>
@@ -5296,13 +5302,13 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L64" t="n">
-        <v>70</v>
+        <v>21858</v>
       </c>
       <c r="M64" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -5349,7 +5355,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Usu�rio respons�vel pelo evento</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5363,7 +5369,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I65" t="n">
         <v>22</v>
@@ -5372,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="M65" t="n">
-        <v>25</v>
+        <v>30407</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5415,22 +5421,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DSC_VALOR</t>
+          <t>TIP_EVENTO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CLOB</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Tipo do evento</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001525975 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5439,19 +5445,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
       <c r="I66" t="n">
-        <v>4000</v>
+        <v>255</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1675</v>
+        <v>25</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5463,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="b">
         <v>0</v>
@@ -5486,17 +5492,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LOG_EVENTO</t>
+          <t>MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DSC_MENSAGEM</t>
+          <t>DAT_MENSAGEM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CLOB</t>
+          <t>TIMESTAMP(6)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5506,7 +5512,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001560043 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5515,22 +5521,22 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>93</v>
+        <v>1777</v>
       </c>
       <c r="I67" t="n">
-        <v>4000</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1777</v>
       </c>
       <c r="M67" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5539,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="b">
         <v>0</v>
@@ -5567,12 +5573,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SEQ_MENSAGEM_DEBITOS</t>
+          <t>DSC_IDENTIFICADOR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5582,7 +5588,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SYS_C001594576 (C: ENABLED)- SYS_C001594580 (PRIMARY KEY: ENABLED)</t>
+          <t>SYS_C001560044 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5591,19 +5597,19 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
       <c r="I68" t="n">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="L68" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -5621,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -5643,12 +5649,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DAT_MENSAGEM</t>
+          <t>DSC_VALOR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>CLOB</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5658,7 +5664,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SYS_C001594577 (C: ENABLED)</t>
+          <t>SYS_C001560045 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5667,19 +5673,19 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>4000</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="L69" t="n">
-        <v>1728</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -5719,12 +5725,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DSC_IDENTIFICADOR</t>
+          <t>SEQ_MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5734,7 +5740,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SYS_C001594578 (C: ENABLED)</t>
+          <t>SYS_C001560042 (C: ENABLED)- SYS_C001560046 (PRIMARY KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5743,19 +5749,19 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
       <c r="I70" t="n">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -5773,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -5790,27 +5796,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MENSAGEM_DEBITOS</t>
+          <t>PARCELA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DSC_VALOR</t>
+          <t>COD_RECEITA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CLOB</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>C�digo da Receita</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SYS_C001594579 (C: ENABLED)</t>
+          <t>FK_COD_RECEITA_R_PARCELA (FOREIGN KEY: ENABLED)- SYS_C001525982 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5819,19 +5825,19 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1728</v>
+        <v>463299</v>
       </c>
       <c r="I71" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -5852,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="b">
         <v>0</v>
@@ -5871,22 +5877,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEQ_PARCELA</t>
+          <t>DAT_VENCIMENTO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data de vencimento da Parcela</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SYS_C00118103 (C: ENABLED)- SYS_C00127582 (PRIMARY KEY: ENABLED)</t>
+          <t>SYS_C001525979 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5895,19 +5901,19 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I72" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
-        <v>461</v>
+        <v>6565</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -5925,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -5947,22 +5953,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DAT_VENCIMENTO</t>
+          <t>NUM_PARCELA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N�mero da parcela no Parcelamento</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SYS_C00118104 (C: ENABLED)</t>
+          <t>SYS_C001525980 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5971,19 +5977,19 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6023,7 +6029,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NUM_PARCELA</t>
+          <t>NUM_PERCENTUAL</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6033,12 +6039,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Percentual do valor total do Parcelamento representado por esta parcela, onde 1 representa 100%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SYS_C00118105 (C: ENABLED)</t>
+          <t>SYS_C001525981 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6047,19 +6053,19 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I74" t="n">
         <v>22</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L74" t="n">
-        <v>60</v>
+        <v>23624</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -6099,22 +6105,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NUM_PERCENTUAL</t>
+          <t>SEQ_DOCUMENTO_CREDITO</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Documento de Cr�dito</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SYS_C00118107 (C: ENABLED)</t>
+          <t>FK_DOCUMENTO_CREDITO_R_PARCELA (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6123,7 +6129,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I75" t="n">
         <v>22</v>
@@ -6132,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>39</v>
+        <v>130336</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>326790</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -6147,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="b">
         <v>0</v>
@@ -6156,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="b">
         <v>0</v>
@@ -6175,7 +6181,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>COD_RECEITA</t>
+          <t>SEQ_PARCELA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6185,12 +6191,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador de uma Parcela</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FK_COD_RECEITA_R_PARCELA (FOREIGN KEY: ENABLED)- SYS_C00118109 (C: ENABLED)</t>
+          <t>PK_PARCELA (PRIMARY KEY: ENABLED)- SYS_C001525978 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6199,7 +6205,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I76" t="n">
         <v>22</v>
@@ -6208,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>463299</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -6229,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="R76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="b">
         <v>0</v>
@@ -6261,12 +6267,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Parcelamento</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FK_PARCELAMENTO_R_PARCELA (FOREIGN KEY: ENABLED)- SYS_C00118115 (C: ENABLED)</t>
+          <t>FK_PARCELAMENTO_R_PARCELA (FOREIGN KEY: ENABLED)- SYS_C001525983 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6275,7 +6281,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
       <c r="I77" t="n">
         <v>22</v>
@@ -6287,7 +6293,7 @@
         <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>64</v>
+        <v>21546</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6322,12 +6328,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PARCELA</t>
+          <t>PARCELAMENTO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEQ_DOCUMENTO_CREDITO</t>
+          <t>COD_ORGAO_LOCAL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6337,12 +6343,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>C�digo do �rg�o Local associado ao Contribuinte (caso seja Contribuinte cadastrado de ICMS)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FK_DOCUMENTO_CREDITO_R_PARCELA (FOREIGN KEY: ENABLED)</t>
+          <t>FK_ORG_LOCAL_R_PARCEL (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6351,7 +6357,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>461</v>
+        <v>21665</v>
       </c>
       <c r="I78" t="n">
         <v>22</v>
@@ -6360,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M78" t="n">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -6398,12 +6404,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PARCELA</t>
+          <t>PARCELAMENTO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SEQ_DAE_EMITIDO</t>
+          <t>COD_ORGAO_LOCAL_INC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6413,12 +6419,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>C�digo do �rg�o Local de cria��o do Parcelamento</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>FK_ORG_LOCAL_INC_R_PARCEL (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6427,7 +6433,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>461</v>
+        <v>21665</v>
       </c>
       <c r="I79" t="n">
         <v>22</v>
@@ -6436,13 +6442,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M79" t="n">
-        <v>461</v>
+        <v>11103</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -6460,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="b">
         <v>0</v>
@@ -6479,22 +6485,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SEQ_PARCELAMENTO</t>
+          <t>DAT_ABERTURA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data de abertura do Parcelamento</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SYS_C00143763 (PRIMARY KEY: ENABLED)- SYS_C0074076 (C: ENABLED)</t>
+          <t>SYS_C001525986 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6503,19 +6509,19 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I80" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>2417</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -6533,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -6555,22 +6561,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DAT_ABERTURA</t>
+          <t>DAT_FINAL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Data final do parcelamento</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SYS_C0074077 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -6579,22 +6585,22 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I81" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>24</v>
+        <v>2148</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>9292</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -6603,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="b">
         <v>0</v>
@@ -6631,17 +6637,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DAT_FINAL</t>
+          <t>DSC_HASH_DOCUMENTO_ALFRESCO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TIMESTAMP(6)</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>HASH para verificar a integridade do arquivo do Alfresco</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6655,22 +6661,22 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I82" t="n">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="J82" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L82" t="n">
-        <v>22</v>
+        <v>11837</v>
       </c>
       <c r="M82" t="n">
-        <v>20</v>
+        <v>9828</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -6707,7 +6713,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NUM_PROCESSO</t>
+          <t>DSC_ID_ARQUIVO_TERMO_ALFRESCO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6717,7 +6723,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>ID do arquivo do Termo de Parcelamento, localizado no Alfresco</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6731,7 +6737,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I83" t="n">
         <v>256</v>
@@ -6740,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>21502</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -6793,7 +6799,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Observa��o registrada sobre o parcelamento</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6807,7 +6813,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I84" t="n">
         <v>4000</v>
@@ -6816,13 +6822,13 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>21294</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -6859,22 +6865,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>QTD_PARCELAS</t>
+          <t>DSC_URL_TERMO_ALFRESCO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>URL referente ao Termo de Parcelamento, localizado no Alfresco</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SYS_C0074078 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6883,10 +6889,10 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -6895,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>21502</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -6907,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" t="b">
         <v>0</v>
@@ -6935,22 +6941,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>STA_PARCELAMENTO</t>
+          <t>NUM_PROCESSO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>N�mero de processo associado ao Parcelamento</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>SYS_C0074079 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6959,22 +6965,22 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I86" t="n">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
-        <v>9</v>
+        <v>562</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>11214</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="b">
         <v>0</v>
@@ -7011,22 +7017,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>NUM_TERMO_NOTIFICACAO_PERDA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Termo de Notifica��o</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FK_DEC_PAR_R_PARCEL (FOREIGN KEY: ENABLED)- SYS_C0074080 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7035,22 +7041,22 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I87" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>21662</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -7059,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="b">
         <v>0</v>
@@ -7068,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" t="b">
         <v>0</v>
@@ -7087,7 +7093,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COD_ORGAO_LOCAL</t>
+          <t>QTD_PARCELAS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7097,12 +7103,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Quantidade de parcelas do parcelamento</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FK_ORG_LOCAL_R_PARCEL (FOREIGN KEY: ENABLED)</t>
+          <t>SYS_C001525987 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7111,7 +7117,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I88" t="n">
         <v>22</v>
@@ -7120,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7135,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="b">
         <v>0</v>
@@ -7144,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="b">
         <v>0</v>
@@ -7163,7 +7169,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>COD_ORGAO_LOCAL_INC</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7173,12 +7179,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento que regulamenta este parcelamento</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>FK_ORG_LOCAL_INC_R_PARCEL (FOREIGN KEY: ENABLED)</t>
+          <t>FK_DEC_PAR_R_PARCEL (FOREIGN KEY: ENABLED)- SYS_C001525989 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7187,7 +7193,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I89" t="n">
         <v>22</v>
@@ -7196,13 +7202,13 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="M89" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -7211,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="b">
         <v>0</v>
@@ -7239,7 +7245,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SEQ_PESSOA</t>
+          <t>SEQ_DECRETO_REFIS_A_VISTA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7254,7 +7260,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FK_PESSOA_R_PARCEL (FOREIGN KEY: ENABLED)</t>
+          <t>FK_DEC_VISTA_PAR_R_PARCEL (FOREIGN KEY: ENABLED)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7263,7 +7269,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I90" t="n">
         <v>22</v>
@@ -7272,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
         <v>6</v>
       </c>
-      <c r="L90" t="n">
-        <v>15</v>
-      </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>17624</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -7315,7 +7321,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SEQ_SOCIO</t>
+          <t>SEQ_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7325,12 +7331,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Parcelamento</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>PK_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525985 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7339,7 +7345,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I91" t="n">
         <v>22</v>
@@ -7348,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>21665</v>
       </c>
       <c r="M91" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -7363,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" t="b">
         <v>1</v>
-      </c>
-      <c r="Q91" t="b">
-        <v>0</v>
-      </c>
-      <c r="R91" t="b">
-        <v>0</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -7391,7 +7397,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>STA_PARCELAMENTO_INTERNET</t>
+          <t>SEQ_PARCELAMENTO_ORIGINAL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7415,7 +7421,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I92" t="n">
         <v>22</v>
@@ -7424,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>743</v>
       </c>
       <c r="M92" t="n">
-        <v>7</v>
+        <v>20804</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -7467,22 +7473,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DSC_URL_TERMO_ALFRESCO</t>
+          <t>SEQ_PESSOA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Contribuinte para o qual foi criado este Parcelamento</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>FK_PESSOA_R_PARCEL (FOREIGN KEY: ENABLED)- SYS_C001525991 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7491,22 +7497,22 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="L93" t="n">
-        <v>15</v>
+        <v>11230</v>
       </c>
       <c r="M93" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -7515,16 +7521,16 @@
         <v>0</v>
       </c>
       <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R93" t="b">
+        <v>0</v>
+      </c>
+      <c r="S93" t="b">
         <v>1</v>
-      </c>
-      <c r="Q93" t="b">
-        <v>0</v>
-      </c>
-      <c r="R93" t="b">
-        <v>0</v>
-      </c>
-      <c r="S93" t="b">
-        <v>0</v>
       </c>
       <c r="T93" t="b">
         <v>0</v>
@@ -7543,22 +7549,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DSC_ID_ARQUIVO_TERMO_ALFRESCO</t>
+          <t>STA_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Situa��o do parcelamento</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001525988 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7567,22 +7573,22 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I94" t="n">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M94" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -7591,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="b">
         <v>0</v>
@@ -7619,17 +7625,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DSC_HASH_DOCUMENTO_ALFRESCO</t>
+          <t>STA_PARCELAMENTO_INTERNET</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Indica se o Parcelamento foi feito na Internet</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7643,22 +7649,22 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
       <c r="I95" t="n">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -7690,17 +7696,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PER_REF_INICIO_MESES_CONSECUTIVOS</t>
+          <t>COD_RECEITA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7710,7 +7716,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001565296 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7719,22 +7725,22 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>70</v>
+        <v>382935</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -7743,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="b">
         <v>0</v>
@@ -7766,17 +7772,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NUM_TERMO_NOTIFICACAO_PERDA</t>
+          <t>DAT_VENCIMENTO</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7786,7 +7792,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001565293 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7795,22 +7801,22 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>70</v>
+        <v>382935</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>6526</v>
       </c>
       <c r="M97" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -7819,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="b">
         <v>0</v>
@@ -7842,12 +7848,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEQ_PARCELAMENTO_ORIGINAL</t>
+          <t>NUM_PARCELA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7862,7 +7868,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (: )</t>
+          <t>SYS_C001565294 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7871,7 +7877,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>70</v>
+        <v>382935</v>
       </c>
       <c r="I98" t="n">
         <v>22</v>
@@ -7880,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="M98" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -7895,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="b">
         <v>0</v>
@@ -7918,12 +7924,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_REFIS_A_VISTA</t>
+          <t>NUM_PERCENTUAL</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -7938,7 +7944,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FK_DEC_VISTA_PAR_R_PARCEL (FOREIGN KEY: ENABLED)</t>
+          <t>SYS_C001565295 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7947,22 +7953,22 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>70</v>
+        <v>382935</v>
       </c>
       <c r="I99" t="n">
         <v>22</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>19418</v>
       </c>
       <c r="M99" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -7971,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="b">
         <v>0</v>
@@ -7980,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" t="b">
         <v>0</v>
@@ -7994,12 +8000,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RECEITA_DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_DOCUMENTO_CREDITO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8014,7 +8020,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_RECEITA_DECRETO (FOREIGN KEY: ENABLED)- PK_RECEITA_DECRETO_PARCEL (PRIMARY KEY: ENABLED)- SYS_C00120788 (C: ENABLED)</t>
+          <t xml:space="preserve"> (: )</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8023,7 +8029,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>14</v>
+        <v>382935</v>
       </c>
       <c r="I100" t="n">
         <v>22</v>
@@ -8032,13 +8038,13 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>8</v>
+        <v>121528</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>256308</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -8047,16 +8053,16 @@
         <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" t="b">
         <v>0</v>
       </c>
       <c r="R100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="b">
         <v>0</v>
@@ -8070,12 +8076,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RECEITA_DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>COD_RECEITA</t>
+          <t>SEQ_PARCELA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -8090,7 +8096,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>FK_RECEITA_R_RECEITA_DECRETO (FOREIGN KEY: ENABLED)- PK_RECEITA_DECRETO_PARCEL (PRIMARY KEY: ENABLED)- SYS_C00120790 (C: ENABLED)</t>
+          <t>PK_PARCELA_S345565 (PRIMARY KEY: ENABLED)- SYS_C001565292 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8099,7 +8105,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>14</v>
+        <v>382935</v>
       </c>
       <c r="I101" t="n">
         <v>22</v>
@@ -8108,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>9</v>
+        <v>382935</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -8132,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="S101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="b">
         <v>0</v>
@@ -8146,12 +8152,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>REGIME_DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -8166,7 +8172,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>FK_DECRETO_R_REGIME_DECRETO (FOREIGN KEY: ENABLED)- SYS_C00106803 (C: ENABLED)</t>
+          <t>SYS_C001565297 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8175,7 +8181,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>382935</v>
       </c>
       <c r="I102" t="n">
         <v>22</v>
@@ -8184,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>16866</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -8208,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="b">
         <v>0</v>
@@ -8222,12 +8228,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>REGIME_DECRETO_PARCELAMENTO</t>
+          <t>RECEITA_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>COD_REGIME_RECOLHIMENTO</t>
+          <t>COD_RECEITA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8237,12 +8243,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>C�digo da Receita</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FK_REGIME_R_REGIME_DECRETO (FOREIGN KEY: ENABLED)- SYS_C00106804 (C: ENABLED)</t>
+          <t>FK_RECEITA_R_RECEITA_DECRETO (FOREIGN KEY: ENABLED)- PK_RECEITA_DECRETO_PARCEL (PRIMARY KEY: ENABLED)- SYS_C001550361 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8251,7 +8257,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I103" t="n">
         <v>22</v>
@@ -8260,28 +8266,28 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L103" t="n">
+        <v>11</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" t="b">
         <v>1</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="b">
-        <v>0</v>
-      </c>
-      <c r="R103" t="b">
-        <v>0</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -8298,12 +8304,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TABELA_TESTE</t>
+          <t>RECEITA_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SEQ_TABELA_TESTE</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8313,12 +8319,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SYS_C00129609 (PRIMARY KEY: ENABLED)- SYS_C0089659 (C: ENABLED)</t>
+          <t>FK_DECRETO_R_RECEITA_DECRETO (FOREIGN KEY: ENABLED)- PK_RECEITA_DECRETO_PARCEL (PRIMARY KEY: ENABLED)- SYS_C001550360 (C: ENABLED)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8327,7 +8333,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I104" t="n">
         <v>22</v>
@@ -8336,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -8360,9 +8366,237 @@
         <v>1</v>
       </c>
       <c r="S104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>COPAF</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>REGIME_DECRETO_PARCELAMENTO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>COD_REGIME_RECOLHIMENTO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>C�digo do Regime de Recolhimento associado ao Decreto de Parcelamento</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FK_REGIME_R_REGIME_DECRETO (FOREIGN KEY: ENABLED)- PK_REGIME_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525994 (C: ENABLED)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>22</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" t="b">
+        <v>1</v>
+      </c>
+      <c r="S105" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>COPAF</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>REGIME_DECRETO_PARCELAMENTO</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Sequencial identificador do Decreto de Parcelamento</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>FK_DECRETO_R_REGIME_DECRETO (FOREIGN KEY: ENABLED)- PK_REGIME_DECRETO_PARCELAMENTO (PRIMARY KEY: ENABLED)- SYS_C001525993 (C: ENABLED)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>22</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" t="b">
+        <v>1</v>
+      </c>
+      <c r="S106" t="b">
+        <v>1</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>COPAF</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TABELA_TESTE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SEQ_TABELA_TESTE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SYS_C001552244 (C: ENABLED)- SYS_C001552245 (PRIMARY KEY: ENABLED)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" t="b">
+        <v>1</v>
+      </c>
+      <c r="S107" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8377,7 +8611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8424,7 +8658,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -8444,7 +8678,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -8464,7 +8698,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -8524,7 +8758,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2656</v>
+        <v>1180807</v>
       </c>
     </row>
     <row r="8">
@@ -8540,11 +8774,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Total number of cells in schema</t>
+          <t>Total number of cells in schema (sum of columns x rows for each table)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13931</v>
+        <v>7245802</v>
       </c>
     </row>
     <row r="9">
@@ -8564,7 +8798,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1885</v>
+        <v>834566</v>
       </c>
     </row>
     <row r="10">
@@ -8584,7 +8818,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -8604,7 +8838,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -8624,7 +8858,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -8644,7 +8878,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8664,7 +8898,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15">
@@ -8684,7 +8918,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>207</v>
+        <v>242762</v>
       </c>
     </row>
     <row r="16">
@@ -8704,7 +8938,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -8724,7 +8958,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>35324</v>
       </c>
     </row>
     <row r="18">
@@ -8744,7 +8978,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -8764,7 +8998,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -8784,7 +9018,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>93</v>
+        <v>31998</v>
       </c>
     </row>
     <row r="21">
@@ -8804,7 +9038,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1728</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="22">
@@ -8824,7 +9058,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>461</v>
+        <v>463299</v>
       </c>
     </row>
     <row r="23">
@@ -8844,7 +9078,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>21665</v>
       </c>
     </row>
     <row r="24">
@@ -8860,11 +9094,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Total rows for table RECEITA_DECRETO_PARCELAMENTO</t>
+          <t>Total rows for table PARCELA_S345565</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>382935</v>
       </c>
     </row>
     <row r="25">
@@ -8880,11 +9114,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Total rows for table REGIME_DECRETO_PARCELAMENTO</t>
+          <t>Total rows for table RECEITA_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -8900,10 +9134,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Total rows for table REGIME_DECRETO_PARCELAMENTO</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME007</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RAW</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Total rows for table TABELA_TESTE</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8918,7 +9172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8967,6 +9221,26 @@
           <t>limit</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_VALUE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_SOURCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_CONFIDENCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_DDL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8993,16 +9267,34 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MENSAGEM_DEBITO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALTER TABLE COPAF.MENSAGEM_DEBITOS RENAME TO MENSAGEM_DEBITO;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME014</t>
+          <t>MQME015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with non-standard prefixes</t>
+          <t>Columns with names longer than recommended</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9012,27 +9304,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PER_REF_INICIO_MESES_CONSECUTIVOS</t>
+          <t>SEQ_DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEQ_DEBITO_DECRETO_PARCELAMENT</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ALTER TABLE COPAF.DEBITO_DECRETO_PARCELAMENTO RENAME COLUMN SEQ_DEBITO_DECRETO_PARCELAMENTO TO SEQ_DEBITO_DECRETO_PARCELAMENT;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME015</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Columns with names longer than recommended</t>
+          <t>Columns without comments</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9042,31 +9356,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DAT_FIM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>31</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Data de fim.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.DAT_FIM IS 'Data de fim.';</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME015</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Columns with names longer than recommended</t>
+          <t>Columns without comments</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9076,20 +9404,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARCELAMENTO</t>
+          <t>DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PER_REF_INICIO_MESES_CONSECUTIVOS</t>
+          <t>DAT_INICIO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>30</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Data de inicio.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.DAT_INICIO IS 'Data de inicio.';</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -9110,17 +9452,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CNAE_DECRETO_PARCELAMENTO</t>
+          <t>DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>SEQ_DEBITO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sequencia de debito.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.SEQ_DEBITO IS 'Sequencia de debito.';</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9140,17 +9500,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CNAE_DECRETO_PARCELAMENTO</t>
+          <t>DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COD_CAE</t>
+          <t>SEQ_DEBITO_DECRETO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Sequencia de debito decreto.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.SEQ_DEBITO_DECRETO IS 'Sequencia de debito decreto.';</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9175,12 +9553,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO_DECRETO</t>
+          <t>SEQ_DECRETO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sequencia de decreto.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.SEQ_DECRETO IS 'Sequencia de decreto.';</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9205,12 +9601,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DAT_FIM</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sequencia de decreto parcelamento.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.SEQ_DECRETO_PARCELAMENTO IS 'Sequencia de decreto parcelamento.';</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9235,12 +9649,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DAT_INICIO</t>
+          <t>SEQ_USUARIO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sequencia de usuario.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO.SEQ_USUARIO IS 'Sequencia de usuario.';</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9260,17 +9692,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO</t>
+          <t>DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO</t>
+          <t>DAT_FIM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Data de fim.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.DAT_FIM IS 'Data de fim.';</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9290,17 +9740,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO</t>
+          <t>DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>DAT_INICIO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Data de inicio.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.DAT_INICIO IS 'Data de inicio.';</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9320,17 +9788,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO</t>
+          <t>DEBITO_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SEQ_USUARIO</t>
+          <t>SEQ_DEBITO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Sequencia de debito.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.SEQ_DEBITO IS 'Sequencia de debito.';</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9361,6 +9847,24 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sequencia de debito decreto parcelamento.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.SEQ_DEBITO_DECRETO_PARCELAMENTO IS 'Sequencia de debito decreto parcelamento.';</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9385,12 +9889,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DAT_FIM</t>
+          <t>SEQ_DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sequencia de decreto parcelamento.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.SEQ_DECRETO_PARCELAMENTO IS 'Sequencia de decreto parcelamento.';</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9415,12 +9937,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DAT_INICIO</t>
+          <t>SEQ_USUARIO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sequencia de usuario.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DEBITO_DECRETO_PARCELAMENTO.SEQ_USUARIO IS 'Sequencia de usuario.';</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9440,17 +9980,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO</t>
+          <t>NUM_PERIODOS_CONSEC_ATRASO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Numero de periodos consec atraso.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DECRETO_PARCELAMENTO.NUM_PERIODOS_CONSEC_ATRASO IS 'Numero de periodos consec atraso.';</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9470,17 +10028,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SEQ_USUARIO</t>
+          <t>STA_VERIFICA_3_MESES_CONSEC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Status de verifica 3 meses consec.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DECRETO_PARCELAMENTO.STA_VERIFICA_3_MESES_CONSEC IS 'Status de verifica 3 meses consec.';</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9500,17 +10076,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DEBITO_DECRETO_PARCELAMENTO</t>
+          <t>DECRETO_PARCELAMENTO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>TIP_LEGISLACAO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Tipo de legislacao.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.DECRETO_PARCELAMENTO.TIP_LEGISLACAO IS 'Tipo de legislacao.';</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9530,17 +10124,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DEBITO_PARCELAMENTO</t>
+          <t>FAIXA_DESCONTO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SEQ_PARCELAMENTO</t>
+          <t>DAT_FIM_ADESAO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Data de fim adesao.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.FAIXA_DESCONTO.DAT_FIM_ADESAO IS 'Data de fim adesao.';</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9560,17 +10172,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DEBITO_PARCELAMENTO</t>
+          <t>FAIXA_DESCONTO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SEQ_DEBITO</t>
+          <t>DAT_INICIO_ADESAO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Data de inicio adesao.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.FAIXA_DESCONTO.DAT_INICIO_ADESAO IS 'Data de inicio adesao.';</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9590,17 +10220,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>LOG_EVENTO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
+          <t>DSC_MENSAGEM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Descricao de mensagem.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.LOG_EVENTO.DSC_MENSAGEM IS 'Descricao de mensagem.';</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9620,17 +10268,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>LOG_EVENTO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DAT_FIM</t>
+          <t>DSC_VALOR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Descricao de valor.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.LOG_EVENTO.DSC_VALOR IS 'Descricao de valor.';</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9650,17 +10316,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DAT_INICIO</t>
+          <t>DAT_MENSAGEM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Data de mensagem.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.MENSAGEM_DEBITOS.DAT_MENSAGEM IS 'Data de mensagem.';</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9680,17 +10364,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NUM_DECRETO</t>
+          <t>DSC_IDENTIFICADOR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Descricao de identificador.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.MENSAGEM_DEBITOS.DSC_IDENTIFICADOR IS 'Descricao de identificador.';</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9710,17 +10412,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COD_ORIGEM_DECRETO</t>
+          <t>DSC_VALOR</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Descricao de valor.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.MENSAGEM_DEBITOS.DSC_VALOR IS 'Descricao de valor.';</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9740,17 +10460,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DSC_ANO_MES_PRIM_PARCELA</t>
+          <t>SEQ_MENSAGEM_DEBITOS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Sequencia de mensagem debitos.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.MENSAGEM_DEBITOS.SEQ_MENSAGEM_DEBITOS IS 'Sequencia de mensagem debitos.';</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9770,17 +10508,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELAMENTO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DSC_PERIODO_REFERENCIA_FIM</t>
+          <t>SEQ_DECRETO_REFIS_A_VISTA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Sequencia de decreto refis a vista.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELAMENTO.SEQ_DECRETO_REFIS_A_VISTA IS 'Sequencia de decreto refis a vista.';</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9800,17 +10556,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELAMENTO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DSC_PERIODO_REFERENCIA_INICIO</t>
+          <t>SEQ_PARCELAMENTO_ORIGINAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sequencia de parcelamento original.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELAMENTO.SEQ_PARCELAMENTO_ORIGINAL IS 'Sequencia de parcelamento original.';</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9830,17 +10604,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>QTD_PARCELAS</t>
+          <t>COD_RECEITA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Codigo de receita.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.COD_RECEITA IS 'Codigo de receita.';</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9860,17 +10652,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>COD_TIPO_DECRETO</t>
+          <t>DAT_VENCIMENTO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Data de vencimento.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.DAT_VENCIMENTO IS 'Data de vencimento.';</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9890,17 +10700,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NUM_MAXIMO_DIAS_ATRASO</t>
+          <t>NUM_PARCELA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Numero de parcela.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.NUM_PARCELA IS 'Numero de parcela.';</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9920,17 +10748,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_JUROS</t>
+          <t>NUM_PERCENTUAL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Numero de percentual.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.NUM_PERCENTUAL IS 'Numero de percentual.';</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9950,17 +10796,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VLR_DESCONTO_MULTA</t>
+          <t>SEQ_DOCUMENTO_CREDITO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Sequencia de documento credito.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.SEQ_DOCUMENTO_CREDITO IS 'Sequencia de documento credito.';</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9980,17 +10844,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>COD_TIPO_VENCIMENTO</t>
+          <t>SEQ_PARCELA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sequencia de parcela.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.SEQ_PARCELA IS 'Sequencia de parcela.';</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10010,17 +10892,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>PARCELA_S345565</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TIP_CRITICA_CNAE</t>
+          <t>SEQ_PARCELAMENTO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Sequencia de parcelamento.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.PARCELA_S345565.SEQ_PARCELAMENTO IS 'Sequencia de parcelamento.';</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10040,2091 +10940,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DECRETO_PARCELAMENTO</t>
+          <t>TABELA_TESTE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TIP_CRITICA_RECEITA</t>
+          <t>SEQ_TABELA_TESTE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>DSC_PER_REF_INICIO_MESES_CONSE</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>COD_TIPO_ATUALIZACAO_PARCELA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TIP_LEGISLACAO</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>STA_VERIFICA_3_MESES_CONSEC</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NUM_PERIODOS_CONSEC_ATRASO</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SEQ_DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_JUROS</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_MULTA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_PRINCIPAL</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>DESCONTO_REFIS_DAE_MIGRADO</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SEQ_DOCUMENTO_CREDITO</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SEQ_FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NUM_QUANTIDADE_MAX_PARCELAS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NUM_QUANTIDADE_MIN_PARCELAS</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_JUROS</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>VLR_DESCONTO_MULTA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>DAT_FIM_ADESAO</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>FAIXA_DESCONTO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>DAT_INICIO_ADESAO</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>SEQ_FAIXA_PERC_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>VLR_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>NUM_QUANTIDADE_MAX_PARCELAS</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NUM_QUANTIDADE_MIN_PARCELAS</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>FAIXA_PERCENTUAL_1A_PARCELA</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SEQ_LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>DAT_LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>TIP_EVENTO</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>SEQ_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>DSC_VALOR</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>LOG_EVENTO</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>DSC_MENSAGEM</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>MENSAGEM_DEBITOS</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SEQ_MENSAGEM_DEBITOS</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>MENSAGEM_DEBITOS</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>DAT_MENSAGEM</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>MENSAGEM_DEBITOS</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>DSC_IDENTIFICADOR</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>MENSAGEM_DEBITOS</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>DSC_VALOR</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SEQ_PARCELA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>DAT_VENCIMENTO</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>NUM_PARCELA</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>NUM_PERCENTUAL</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>COD_RECEITA</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>SEQ_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>SEQ_DOCUMENTO_CREDITO</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>PARCELA</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>SEQ_DAE_EMITIDO</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>SEQ_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>DAT_ABERTURA</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>DAT_FINAL</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>NUM_PROCESSO</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DSC_OBSERVACAO</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>QTD_PARCELAS</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>STA_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL_INC</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SEQ_PESSOA</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>SEQ_SOCIO</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>STA_PARCELAMENTO_INTERNET</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>DSC_URL_TERMO_ALFRESCO</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>DSC_ID_ARQUIVO_TERMO_ALFRESCO</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>DSC_HASH_DOCUMENTO_ALFRESCO</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>PER_REF_INICIO_MESES_CONSECUTIVOS</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>NUM_TERMO_NOTIFICACAO_PERDA</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>SEQ_PARCELAMENTO_ORIGINAL</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_REFIS_A_VISTA</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>RECEITA_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>RECEITA_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>COD_RECEITA</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>REGIME_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>SEQ_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>REGIME_DECRETO_PARCELAMENTO</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>COD_REGIME_RECOLHIMENTO</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MQME008</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Columns without comments</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>TABELA_TESTE</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>SEQ_TABELA_TESTE</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>MQME011</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>COPAF</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>DEBITO_DECRETO</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>SEQ_DEBITO</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>UK_DEBITO_DECRETO_1</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Sequencia de tabela teste.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN COPAF.TABELA_TESTE.SEQ_TABELA_TESTE IS 'Sequencia de tabela teste.';</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12175,7 +11019,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>93.33%</t>
+          <t>93.75%</t>
         </is>
       </c>
     </row>
@@ -12209,7 +11053,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99.03%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -12226,7 +11070,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98.06%</t>
+          <t>99.06%</t>
         </is>
       </c>
     </row>
@@ -12243,7 +11087,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.91%</t>
+          <t>67.92%</t>
         </is>
       </c>
     </row>
@@ -12294,7 +11138,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -12328,7 +11172,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>86.47%</t>
+          <t>88.48%</t>
         </is>
       </c>
     </row>
